--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241212).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241212).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트앤드_A RAM\FED-Project-LAR\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,6 +838,42 @@
 - 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
 - 상단영역 탑메뉴 SVG 색깔 바꾸기</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-12 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-13 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-23 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-24 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-20 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-19 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-18 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-17 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-16 (월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,7 +1449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,12 +1539,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2492,11 +2522,11 @@
   <sheetData>
     <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
@@ -2508,7 +2538,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -2519,60 +2549,60 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <v>45630</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="34"/>
     </row>
     <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="20">
         <f>I4</f>
         <v>45630</v>
@@ -2663,13 +2693,13 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="58"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="21">
         <f>I5</f>
         <v>45630</v>
@@ -2777,7 +2807,7 @@
       <c r="G7" s="18">
         <v>50</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="2" t="s">
         <v>107</v>
       </c>
@@ -5580,8 +5610,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5592,16 +5622,16 @@
     <col min="4" max="5" width="63.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="3.625" customWidth="1"/>
+    <col min="8" max="15" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
@@ -5612,7 +5642,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -5622,63 +5652,81 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="G4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
@@ -5696,15 +5744,33 @@
       <c r="F7" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="G7" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
@@ -5722,78 +5788,105 @@
       <c r="F8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="G11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="62"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
@@ -5811,12 +5904,33 @@
       <c r="F14" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="G14" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5832,69 +5946,92 @@
         <v>143</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="59" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:15" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="58"/>
+      <c r="C17" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="62"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="59"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="2:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="60"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+    </row>
+    <row r="20" spans="2:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
         <v>122</v>
       </c>
@@ -5910,14 +6047,35 @@
       <c r="F20" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>127</v>
       </c>
@@ -5933,63 +6091,92 @@
       <c r="F21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="59" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="2:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="58"/>
+      <c r="C23" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="62"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="59"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="2:15" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="60"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="2:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
         <v>111</v>
       </c>
@@ -6005,18 +6192,39 @@
       <c r="F26" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="13" customFormat="1" ht="384" x14ac:dyDescent="0.3">
+      <c r="G26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="13" customFormat="1" ht="384" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>130</v>
       </c>
       <c r="D27" s="29"/>
@@ -6026,18 +6234,62 @@
       <c r="F27" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="57">
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E17:E19"/>
@@ -6054,57 +6306,9 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H4:O8">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND(#REF!&gt;=$D4,#REF!&lt;=$E4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:O8">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>#REF!=$E$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G8">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F35BE3AD-C14D-4965-9B2A-81A3F601855C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F35BE3AD-C14D-4965-9B2A-81A3F601855C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G4:G8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>